--- a/data.xlsx
+++ b/data.xlsx
@@ -1,39 +1,175 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6990" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Links" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="README" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Revenue" sheetId="1" r:id="rId1"/>
+    <sheet name="Links" sheetId="2" r:id="rId2"/>
+    <sheet name="README" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+  <si>
+    <t>個股</t>
+  </si>
+  <si>
+    <t>名稱</t>
+  </si>
+  <si>
+    <t>產業別</t>
+  </si>
+  <si>
+    <t>202511單月合併營收年成長(%)</t>
+  </si>
+  <si>
+    <t>202511單月合併營收月變動(%)</t>
+  </si>
+  <si>
+    <t>202512單月合併營收年成長(%)</t>
+  </si>
+  <si>
+    <t>202512單月合併營收月變動(%)</t>
+  </si>
+  <si>
+    <t>台積電</t>
+  </si>
+  <si>
+    <t>半導體</t>
+  </si>
+  <si>
+    <t>聯發科</t>
+  </si>
+  <si>
+    <t>IC設計</t>
+  </si>
+  <si>
+    <t>光罩</t>
+  </si>
+  <si>
+    <t>半導體設備</t>
+  </si>
+  <si>
+    <t>京元電子</t>
+  </si>
+  <si>
+    <t>IC封測</t>
+  </si>
+  <si>
+    <t>家登</t>
+  </si>
+  <si>
+    <t>台達電</t>
+  </si>
+  <si>
+    <t>電子零組件</t>
+  </si>
+  <si>
+    <t>上游代號</t>
+  </si>
+  <si>
+    <t>下游代號</t>
+  </si>
+  <si>
+    <t>關係類型</t>
+  </si>
+  <si>
+    <t>備註</t>
+  </si>
+  <si>
+    <t>光罩/光罩版</t>
+  </si>
+  <si>
+    <t>示例</t>
+  </si>
+  <si>
+    <t>夾具/傳送盒</t>
+  </si>
+  <si>
+    <t>晶圓代工</t>
+  </si>
+  <si>
+    <t>電源/電源模組</t>
+  </si>
+  <si>
+    <t>使用說明</t>
+  </si>
+  <si>
+    <t>1. Revenue：每家公司一列；月份欄位命名必須為 YYYYMM單月合併營收年成長(%) / YYYYMM單月合併營收月變動(%)。</t>
+  </si>
+  <si>
+    <t>2. Links：方向為 上游代號 ➜ 下游代號；關係類型與權重可自由維護。</t>
+  </si>
+  <si>
+    <t>3. 將本檔命名為 data.xlsx，與 index.html 放在同一層，部署到 GitHub Pages 即可。</t>
+  </si>
+  <si>
+    <t>日月光投控</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永光</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>化工</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中華化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>長興</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特用化學品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -48,93 +184,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -422,397 +508,449 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A8" sqref="A8:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>個股</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>名稱</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>產業別</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>202511單月合併營收年成長(%)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>202511單月合併營收月變動(%)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>202512單月合併營收年成長(%)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>202512單月合併營收月變動(%)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>2330</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>台積電</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>半導體</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
         <v>12.4</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>3.1</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>10.8</v>
       </c>
-      <c r="G2" t="n">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="G2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2454</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>聯發科</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>IC設計</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>7.5</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>-0.8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>2338</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>光罩</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>半導體設備</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
         <v>-31.9</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>-27</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>-26.8</v>
       </c>
-      <c r="G4" t="n">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="G4">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>2449</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>京元電子</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>IC封測</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
         <v>41.8</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>34.9</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>33</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>-1.2</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>3680</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>家登</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>半導體設備</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
         <v>69.3</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>46</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>49.2</v>
       </c>
-      <c r="G6" t="n">
-        <v>19.1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="G6">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>2308</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>台達電</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>電子零組件</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
         <v>6.2</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>0.9</v>
       </c>
-      <c r="F7" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="F7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G7">
         <v>0.7</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3711</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>30.2</v>
+      </c>
+      <c r="E8">
+        <v>21.5</v>
+      </c>
+      <c r="F8">
+        <v>33</v>
+      </c>
+      <c r="G8">
+        <v>12.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1711</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>35.65</v>
+      </c>
+      <c r="F9">
+        <v>21.55</v>
+      </c>
+      <c r="G9">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1727</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>24</v>
+      </c>
+      <c r="F10">
+        <v>49.35</v>
+      </c>
+      <c r="G10">
+        <v>11.56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1717</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>15.65</v>
+      </c>
+      <c r="G11">
+        <v>9.4499999999999993</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>上游代號</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>下游代號</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>關係類型</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>備註</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>2338</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>2330</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>光罩/光罩版</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>示例</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2449</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>2330</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>IC封測</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>示例</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>3680</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>2330</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>夾具/傳送盒</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>示例</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>2330</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>2454</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>晶圓代工</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>示例</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>2308</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>2454</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>電源/電源模組</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>示例</t>
-        </is>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3711</v>
+      </c>
+      <c r="B7">
+        <v>2330</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1711</v>
+      </c>
+      <c r="B8">
+        <v>2330</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1727</v>
+      </c>
+      <c r="B9">
+        <v>2330</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1717</v>
+      </c>
+      <c r="B10">
+        <v>2330</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>使用說明</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1. Revenue：每家公司一列；月份欄位命名必須為 YYYYMM單月合併營收年成長(%) / YYYYMM單月合併營收月變動(%)。</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2. Links：方向為 上游代號 ➜ 下游代號；關係類型與權重可自由維護。</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3. 將本檔命名為 data.xlsx，與 index.html 放在同一層，部署到 GitHub Pages 即可。</t>
-        </is>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6990" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6990"/>
   </bookViews>
   <sheets>
     <sheet name="Revenue" sheetId="1" r:id="rId1"/>
@@ -511,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -781,7 +781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
